--- a/カレンダー/files/base.xlsx
+++ b/カレンダー/files/base.xlsx
@@ -21,6 +21,22 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>年</t>
+    <rPh sb="0" eb="1">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,20 +364,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>1999</v>
+        <v>2021</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
       <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/カレンダー/files/base.xlsx
+++ b/カレンダー/files/base.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19023\Documents\UiPath\カレンダー\files\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
@@ -35,6 +35,31 @@
   <si>
     <t>ガツ</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>土</t>
   </si>
 </sst>
 </file>
@@ -66,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -74,14 +99,224 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -364,10 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A4" sqref="A4:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -380,117 +616,147 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="F4">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="C4" s="8">
         <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
+      <c r="A5" s="3">
         <v>7</v>
       </c>
-      <c r="F5">
+      <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="C5" s="1">
         <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
+      <c r="A6" s="3">
         <v>14</v>
       </c>
-      <c r="F6">
+      <c r="B6" s="1">
         <v>15</v>
       </c>
-      <c r="G6">
+      <c r="C6" s="1">
         <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
+      <c r="A7" s="3">
         <v>21</v>
       </c>
-      <c r="F7">
+      <c r="B7" s="1">
         <v>22</v>
       </c>
-      <c r="G7">
+      <c r="C7" s="1">
         <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1">
+        <v>26</v>
+      </c>
+      <c r="G7" s="5">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>27</v>
-      </c>
-      <c r="E8">
+      <c r="A8" s="3">
         <v>28</v>
       </c>
-      <c r="F8">
-        <v>29</v>
-      </c>
-      <c r="G8">
-        <v>30</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>31</v>
-      </c>
+    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="6"/>
     </row>
+    <row r="10" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
